--- a/test-output/PurchaseCreateOutput.xlsx
+++ b/test-output/PurchaseCreateOutput.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{6362624D-D4C2-47A3-8625-29D9ECEE6C53}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{44FB86DF-B2EC-4977-BE39-CCCD6660CBBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18510" windowHeight="9570" activeTab="1" xr2:uid="{FDE0CE6F-DB46-43AD-8011-922967601BD3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="6075" firstSheet="2" activeTab="4" xr2:uid="{FDE0CE6F-DB46-43AD-8011-922967601BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Pur_SupplierMaster_Create" sheetId="1" r:id="rId1"/>
-    <sheet name="Pur_ServiceProvider_Create" sheetId="2" r:id="rId2"/>
-    <sheet name="Pur_MaterialBuyer_Create" sheetId="3" r:id="rId3"/>
+    <sheet name="SuppAdvance_Create" sheetId="2" r:id="rId2"/>
+    <sheet name="SuppPayment_Create" sheetId="3" r:id="rId3"/>
+    <sheet name="Pur_Payment_Flow" sheetId="4" r:id="rId4"/>
+    <sheet name="Pur_Transaction_Create" sheetId="5" r:id="rId5"/>
+    <sheet name="ServAdvance_Create" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A10:O38"/>
+  <oleSize ref="A1:U18"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +26,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Supplier Advance is  Created</t>
+  </si>
+  <si>
+    <t>Supplier Advance is  Updated</t>
+  </si>
+  <si>
+    <t>Advance is Paid</t>
+  </si>
+  <si>
+    <t>CreateSuppAdvanace</t>
+  </si>
+  <si>
+    <t>Supplier Advance Edit &amp; Upudate</t>
+  </si>
+  <si>
+    <t>905</t>
+  </si>
+  <si>
+    <t>is Created</t>
+  </si>
+  <si>
+    <t>is Updated</t>
+  </si>
+  <si>
+    <t>Suppier Payment is Paid</t>
+  </si>
+  <si>
+    <t>Certificate No. 14445</t>
+  </si>
+  <si>
+    <t>Certificate No. 14446</t>
+  </si>
+  <si>
+    <t>SupplierPaymentCreation</t>
+  </si>
+  <si>
+    <t>Supplier Payment Update</t>
+  </si>
   <si>
     <t>Created</t>
   </si>
@@ -31,137 +76,105 @@
     <t>CreateSupplier</t>
   </si>
   <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>M&amp;S 2404062044</t>
-  </si>
-  <si>
-    <t>SB 2404062052</t>
-  </si>
-  <si>
-    <t>Mani 2404062101</t>
-  </si>
-  <si>
-    <t>BABU 2404062110</t>
-  </si>
-  <si>
-    <t>GHS 2404062119</t>
-  </si>
-  <si>
-    <t>Narendra 2404062128</t>
-  </si>
-  <si>
-    <t>Laguu 2404062136</t>
-  </si>
-  <si>
-    <t>Lagu 2404062145</t>
-  </si>
-  <si>
-    <t>Ashoka 2404062154</t>
-  </si>
-  <si>
-    <t>Lakke 2404062203</t>
-  </si>
-  <si>
-    <t>RahulD 2404062212</t>
-  </si>
-  <si>
-    <t>Deepak 2404062220</t>
-  </si>
-  <si>
-    <t>MSB 2404062229</t>
-  </si>
-  <si>
-    <t>D&amp;SON's 2404062237</t>
-  </si>
-  <si>
-    <t>Ram 2404062246</t>
-  </si>
-  <si>
-    <t>Updated</t>
-  </si>
-  <si>
-    <t>APML Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VRL </t>
-  </si>
-  <si>
-    <t>Anand</t>
-  </si>
-  <si>
-    <t>KSRTC</t>
-  </si>
-  <si>
-    <t>MB Bro's</t>
-  </si>
-  <si>
-    <t>Pai</t>
-  </si>
-  <si>
-    <t>Vijay Anand</t>
-  </si>
-  <si>
-    <t>Katti</t>
-  </si>
-  <si>
-    <t>NBS</t>
-  </si>
-  <si>
-    <t>NRTravles</t>
-  </si>
-  <si>
-    <t>BMTC</t>
-  </si>
-  <si>
-    <t>ServiceProvderCreation</t>
-  </si>
-  <si>
-    <t>ServiceProviderUpdation</t>
-  </si>
-  <si>
-    <t>MaterialBuyerCreation</t>
-  </si>
-  <si>
-    <t>Material Buyer Updation</t>
-  </si>
-  <si>
-    <t>SRK Buyer</t>
-  </si>
-  <si>
-    <t>Deepu Buyer</t>
-  </si>
-  <si>
-    <t>Dinesh Buyer</t>
-  </si>
-  <si>
-    <t>Santh Buyer</t>
-  </si>
-  <si>
-    <t>Jan Buyer</t>
-  </si>
-  <si>
-    <t>Patan Buyer</t>
-  </si>
-  <si>
-    <t>Sachin Buyer</t>
-  </si>
-  <si>
-    <t>Sam Buyer</t>
-  </si>
-  <si>
-    <t>karan Buyer</t>
-  </si>
-  <si>
-    <t>Khan Buyer</t>
+    <t>M&amp;S 2006091010</t>
+  </si>
+  <si>
+    <t>SB 2006091016</t>
+  </si>
+  <si>
+    <t>Mani 2006091022</t>
+  </si>
+  <si>
+    <t>BABU 2006091027</t>
+  </si>
+  <si>
+    <t>GHS 2006091033</t>
+  </si>
+  <si>
+    <t>Narendra 2006091038</t>
+  </si>
+  <si>
+    <t>Laguu 2006091044</t>
+  </si>
+  <si>
+    <t>Lagu 2006091049</t>
+  </si>
+  <si>
+    <t>Ashoka 2006091055</t>
+  </si>
+  <si>
+    <t>Lakke 2006091100</t>
+  </si>
+  <si>
+    <t>RahulD 2006091105</t>
+  </si>
+  <si>
+    <t>Deepak 2006091111</t>
+  </si>
+  <si>
+    <t>MSB 2006091116</t>
+  </si>
+  <si>
+    <t>D&amp;SON's 2006091122</t>
+  </si>
+  <si>
+    <t>Ram 2006091127</t>
+  </si>
+  <si>
+    <t>907</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>GRN is Created</t>
+  </si>
+  <si>
+    <t>is Not Created-Exception</t>
+  </si>
+  <si>
+    <t>909</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplier Certificate </t>
+  </si>
+  <si>
+    <t>Certificate No. 14447</t>
+  </si>
+  <si>
+    <t>GRN/7727/1</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>Certificate No. 14448</t>
+  </si>
+  <si>
+    <t>916</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/215</t>
+  </si>
+  <si>
+    <t>Indent is Created</t>
+  </si>
+  <si>
+    <t>PO/23Jun2023/A.G.E/131</t>
+  </si>
+  <si>
+    <t>PO is Created</t>
+  </si>
+  <si>
+    <t>GRN/7763/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -509,141 +522,141 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="23.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B10" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B14" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -652,70 +665,70 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6D02171-5076-49B8-8EF6-BFAA871AFE51}">
-  <dimension ref="A1:B33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2BCD1B-ED80-42E8-B802-CF6B408612F2}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -723,345 +736,267 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>27</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>28</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25"/>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{908E68D6-0BAA-471C-AA41-855EE6525864}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99170C2-9E9D-44DF-B0D9-56A8B73FEF2B}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC02624A-A622-465D-8873-95FBCCE25CC4}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41409D5-4441-444E-A6B8-6A1A0D209CAA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABB8A52-1BEA-44C0-B902-82BCE46141E6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test-output/PurchaseCreateOutput.xlsx
+++ b/test-output/PurchaseCreateOutput.xlsx
@@ -1,22 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20399"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{44FB86DF-B2EC-4977-BE39-CCCD6660CBBB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{1E348774-3CA0-4AB7-8714-E42FD2170BD5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21765" windowHeight="6075" firstSheet="2" activeTab="4" xr2:uid="{FDE0CE6F-DB46-43AD-8011-922967601BD3}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22455" windowHeight="5595" firstSheet="4" activeTab="7" xr2:uid="{FDE0CE6F-DB46-43AD-8011-922967601BD3}"/>
   </bookViews>
   <sheets>
     <sheet name="Pur_SupplierMaster_Create" sheetId="1" r:id="rId1"/>
-    <sheet name="SuppAdvance_Create" sheetId="2" r:id="rId2"/>
-    <sheet name="SuppPayment_Create" sheetId="3" r:id="rId3"/>
-    <sheet name="Pur_Payment_Flow" sheetId="4" r:id="rId4"/>
+    <sheet name="SuppAdvance_Create" sheetId="19" r:id="rId2"/>
+    <sheet name="SuppPayment_Create1" sheetId="17" r:id="rId3"/>
+    <sheet name="Pur_Payment_Flow" sheetId="12" r:id="rId4"/>
     <sheet name="Pur_Transaction_Create" sheetId="5" r:id="rId5"/>
-    <sheet name="ServAdvance_Create" sheetId="6" r:id="rId6"/>
+    <sheet name="ServAdvance_Create" sheetId="20" r:id="rId6"/>
+    <sheet name="ServPayment_Create1" sheetId="7" r:id="rId7"/>
+    <sheet name="ServPayment_Create" sheetId="22" r:id="rId8"/>
+    <sheet name="SuppDebitNoteCreate" sheetId="8" r:id="rId9"/>
+    <sheet name="ServiceDebitNoteCreate" sheetId="9" r:id="rId10"/>
+    <sheet name="SuppDebitNoteReceiptCreate" sheetId="10" r:id="rId11"/>
+    <sheet name="ServiceDebitNoteReceiptCreate" sheetId="11" r:id="rId12"/>
+    <sheet name="Supp_MultiRecovery_Create" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:U18"/>
+  <oleSize ref="A1:W16"/>
   <extLst>
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="117">
   <si>
     <t>PASS</t>
   </si>
@@ -43,12 +50,6 @@
     <t>CreateSuppAdvanace</t>
   </si>
   <si>
-    <t>Supplier Advance Edit &amp; Upudate</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
     <t>is Created</t>
   </si>
   <si>
@@ -58,12 +59,6 @@
     <t>Suppier Payment is Paid</t>
   </si>
   <si>
-    <t>Certificate No. 14445</t>
-  </si>
-  <si>
-    <t>Certificate No. 14446</t>
-  </si>
-  <si>
     <t>SupplierPaymentCreation</t>
   </si>
   <si>
@@ -121,39 +116,12 @@
     <t>Ram 2006091127</t>
   </si>
   <si>
-    <t>907</t>
-  </si>
-  <si>
-    <t>908</t>
-  </si>
-  <si>
     <t>GRN is Created</t>
   </si>
   <si>
-    <t>is Not Created-Exception</t>
-  </si>
-  <si>
-    <t>909</t>
-  </si>
-  <si>
     <t xml:space="preserve">Supplier Certificate </t>
   </si>
   <si>
-    <t>Certificate No. 14447</t>
-  </si>
-  <si>
-    <t>GRN/7727/1</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>Certificate No. 14448</t>
-  </si>
-  <si>
-    <t>916</t>
-  </si>
-  <si>
     <t>IND/BTSP/THD/40/215</t>
   </si>
   <si>
@@ -167,6 +135,255 @@
   </si>
   <si>
     <t>GRN/7763/1</t>
+  </si>
+  <si>
+    <t>ServiceAdvanceCreation</t>
+  </si>
+  <si>
+    <t>Service Advance Updation</t>
+  </si>
+  <si>
+    <t>Certificate is Created</t>
+  </si>
+  <si>
+    <t>Certificate is Modified &amp; Updated</t>
+  </si>
+  <si>
+    <t>Processed</t>
+  </si>
+  <si>
+    <t>Service Payment is Paid</t>
+  </si>
+  <si>
+    <t>1003</t>
+  </si>
+  <si>
+    <t>Certificate No. 1003</t>
+  </si>
+  <si>
+    <t>1004</t>
+  </si>
+  <si>
+    <t>Certificate No. 1004</t>
+  </si>
+  <si>
+    <t>1005</t>
+  </si>
+  <si>
+    <t>Certificate No. 1005</t>
+  </si>
+  <si>
+    <t>Servcertcreation</t>
+  </si>
+  <si>
+    <t>Service Payment Update</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Created</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Updated</t>
+  </si>
+  <si>
+    <t>Supplier Debit Note Creation</t>
+  </si>
+  <si>
+    <t>406</t>
+  </si>
+  <si>
+    <t>407</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>is Processed</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Supplier Debit Note Updation</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>SuppDebit Note Receipt is Created</t>
+  </si>
+  <si>
+    <t>SuppDebit Note Receipt is  Modified &amp; Updated</t>
+  </si>
+  <si>
+    <t>SuppDebit Note Receipt is Realized</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>SupplierDebitNoteReceiptCreation</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Service Provider Debit Note Receipt is Created</t>
+  </si>
+  <si>
+    <t>Service Provider Debit Note Receipt is  Modified &amp; Updated</t>
+  </si>
+  <si>
+    <t>Service Provider Debit Note Receipt is Realized</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>ServiceDebitNoteReceiptCreation</t>
+  </si>
+  <si>
+    <t>ServiceDebitNoteReceiptUpdation</t>
+  </si>
+  <si>
+    <t>SupplierDebitNoteReceiptUpdation</t>
+  </si>
+  <si>
+    <t>Supplier Advance is Paid</t>
+  </si>
+  <si>
+    <t>Supplier Debit Note Created</t>
+  </si>
+  <si>
+    <t>Supplier Certificate is Created</t>
+  </si>
+  <si>
+    <t>Service Advance is  Created</t>
+  </si>
+  <si>
+    <t>Service Advance is Paid</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/243</t>
+  </si>
+  <si>
+    <t>PO/12Jul2023/A.G.E/193</t>
+  </si>
+  <si>
+    <t>GRN/7826/1</t>
+  </si>
+  <si>
+    <t>949</t>
+  </si>
+  <si>
+    <t>428</t>
+  </si>
+  <si>
+    <t>Certificate No. 14469</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1016</t>
+  </si>
+  <si>
+    <t>Service Certificate is Created</t>
+  </si>
+  <si>
+    <t>Certificate No. 1016</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>IND/BTSP/THD/40/253</t>
+  </si>
+  <si>
+    <t>PO/14Jul2023/A.G.E/205</t>
+  </si>
+  <si>
+    <t>GRN/7838/1</t>
+  </si>
+  <si>
+    <t>964</t>
+  </si>
+  <si>
+    <t>965</t>
+  </si>
+  <si>
+    <t>966</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>441</t>
+  </si>
+  <si>
+    <t>442</t>
+  </si>
+  <si>
+    <t>Certificate No. 14475</t>
+  </si>
+  <si>
+    <t>Certificate No. 14491</t>
+  </si>
+  <si>
+    <t>Certificate No. 14492</t>
+  </si>
+  <si>
+    <t>Certificate No. 14493</t>
+  </si>
+  <si>
+    <t>974</t>
+  </si>
+  <si>
+    <t>975</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>Supplier Advance Edit &amp; Update</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>1020</t>
+  </si>
+  <si>
+    <t>Certificate No. 1020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Service Certificate </t>
+  </si>
+  <si>
+    <t>is Not Created Exception</t>
   </si>
 </sst>
 </file>
@@ -522,7 +739,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,130 +750,583 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
         <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD78B9C-692C-4AB4-95C2-925C2D39F8E1}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="21.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7A1B0B7-4037-45A0-B1F4-9845CF178B2B}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="44.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48EE5A6-5548-4C66-BD14-F1B9EC2AF8E6}">
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="31.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="55.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A1D5C1-D489-4590-ABEC-4F3A11F8A981}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="28.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -665,22 +1335,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE2BCD1B-ED80-42E8-B802-CF6B408612F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D131219-D960-4E57-9A2A-95AF77571622}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -688,63 +1358,63 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="B8" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>108</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -760,7 +1430,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -772,94 +1442,94 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99170C2-9E9D-44DF-B0D9-56A8B73FEF2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA8CBACA-88B6-4E52-B32A-24F0FAD33005}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="36.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -867,7 +1537,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -879,65 +1549,137 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC02624A-A622-465D-8873-95FBCCE25CC4}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2EE246-0730-4F1B-BC00-B9BF2E258370}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="20.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="43.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>80</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B5" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>91</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B15" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -949,8 +1691,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D41409D5-4441-444E-A6B8-6A1A0D209CAA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,28 +1700,28 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="23.28515625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -988,15 +1730,376 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABB8A52-1BEA-44C0-B902-82BCE46141E6}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F46614C5-0B72-4F1E-A22A-20C010B6B88F}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="27.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>112</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BE28A7-064D-4A80-8673-97D75A582C40}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="31.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{200BA626-18AD-4A3D-9A30-523C65CEF63D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D09683D-940F-4260-BC74-B705100E6CEA}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>